--- a/【StockLead】テーブル定義書.xlsx
+++ b/【StockLead】テーブル定義書.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18745BAF-48FE-4B42-A71F-E5AEECF63ACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D0CB5DE-140B-6F4C-A62A-80568F8E33D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34020" yWindow="-280" windowWidth="28800" windowHeight="16380" activeTab="5" xr2:uid="{84575686-D333-47A9-97C0-193D95775C32}"/>
+    <workbookView xWindow="34920" yWindow="480" windowWidth="28800" windowHeight="16260" activeTab="5" xr2:uid="{84575686-D333-47A9-97C0-193D95775C32}"/>
   </bookViews>
   <sheets>
     <sheet name="tenant" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="108">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -677,14 +677,14 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ER図</t>
-    <rPh sb="2" eb="3">
-      <t xml:space="preserve">ズ </t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>https://lucid.app/lucidchart/d3f6bc3f-0a0e-46ef-ab3a-814349bcbb71/edit?viewport_loc=-482%2C-110%2C3328%2C1488%2C0_0&amp;invitationId=inv_378d9835-d6a8-4188-97d7-64f741ad862f</t>
+    <t>ssprice</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>価格</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">カカク </t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -792,7 +792,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -815,6 +815,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1135,7 +1138,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:B15"/>
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
@@ -1456,20 +1459,13 @@
       <c r="K13" s="2"/>
     </row>
     <row r="15" spans="1:11" ht="25">
-      <c r="A15" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>107</v>
-      </c>
+      <c r="A15" s="3"/>
+      <c r="B15" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <hyperlinks>
-    <hyperlink ref="B15" r:id="rId1" xr:uid="{9460F214-3FA4-FB4D-83D1-5B4C7DAF21A3}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1478,7 +1474,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:B15"/>
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
@@ -1800,20 +1796,13 @@
       <c r="K13" s="2"/>
     </row>
     <row r="15" spans="1:11" ht="25">
-      <c r="A15" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>107</v>
-      </c>
+      <c r="A15" s="3"/>
+      <c r="B15" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <hyperlinks>
-    <hyperlink ref="B15" r:id="rId1" xr:uid="{ECAA4A6A-27AA-EA46-80E7-AC9B1A0DCD53}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1821,8 +1810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{404C49AA-6749-DA4C-BA03-3FE5250EB99C}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:B17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
@@ -1962,9 +1951,7 @@
       <c r="E7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
         <v>30</v>
       </c>
@@ -2198,29 +2185,22 @@
       <c r="K15" s="2"/>
     </row>
     <row r="17" spans="1:2" ht="25">
-      <c r="A17" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>107</v>
-      </c>
+      <c r="A17" s="3"/>
+      <c r="B17" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <hyperlinks>
-    <hyperlink ref="B17" r:id="rId1" xr:uid="{376B07E7-DFB3-9E46-B3F3-1B8368AAF55F}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB2B1CE3-0101-4742-BEB6-587EB58EC379}">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:B16"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
@@ -2468,14 +2448,14 @@
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>31</v>
@@ -2486,9 +2466,7 @@
       <c r="J11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K11" s="2" t="s">
-        <v>86</v>
-      </c>
+      <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:11" ht="30.75" customHeight="1">
       <c r="A12" s="2">
@@ -2497,14 +2475,14 @@
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>31</v>
@@ -2516,7 +2494,7 @@
         <v>32</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="30.75" customHeight="1">
@@ -2526,67 +2504,89 @@
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>80</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="F13" s="2"/>
       <c r="G13" s="2" t="s">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>31</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>31</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="30.75" customHeight="1">
-      <c r="A14" s="2"/>
+      <c r="A14" s="2">
+        <v>9</v>
+      </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-    </row>
-    <row r="16" spans="1:11" ht="25">
-      <c r="A16" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>107</v>
-      </c>
+      <c r="D14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="30.75" customHeight="1">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="17" spans="1:2" ht="25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <hyperlinks>
-    <hyperlink ref="B16" r:id="rId1" xr:uid="{AA93BDD5-D921-E940-8BFA-C3082B04FC74}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA20CD7F-6966-AC4B-AE8F-C375B05A83D7}">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:B16"/>
+      <selection activeCell="I10" sqref="I10:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
@@ -2597,7 +2597,8 @@
     <col min="5" max="5" width="15.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="23.83203125" style="1" customWidth="1"/>
     <col min="7" max="9" width="17.33203125" style="1" customWidth="1"/>
-    <col min="10" max="11" width="21.83203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.83203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="44.33203125" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -2695,9 +2696,7 @@
       <c r="E6" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
         <v>30</v>
       </c>
@@ -2728,9 +2727,7 @@
       <c r="E7" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
         <v>30</v>
       </c>
@@ -2772,7 +2769,7 @@
       <c r="J8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" s="8" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2836,14 +2833,14 @@
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>31</v>
@@ -2854,9 +2851,7 @@
       <c r="J11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K11" s="2" t="s">
-        <v>86</v>
-      </c>
+      <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:11" ht="30.75" customHeight="1">
       <c r="A12" s="2">
@@ -2865,14 +2860,14 @@
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>31</v>
@@ -2884,7 +2879,7 @@
         <v>32</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="30.75" customHeight="1">
@@ -2894,67 +2889,89 @@
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>80</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="F13" s="2"/>
       <c r="G13" s="2" t="s">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>31</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>31</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="30.75" customHeight="1">
-      <c r="A14" s="2"/>
+      <c r="A14" s="2">
+        <v>9</v>
+      </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-    </row>
-    <row r="16" spans="1:11" ht="25">
-      <c r="A16" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>107</v>
-      </c>
+      <c r="D14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="30.75" customHeight="1">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="17" spans="1:2" ht="25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <hyperlinks>
-    <hyperlink ref="B16" r:id="rId1" xr:uid="{8BEEE151-0DEB-7146-A270-9302D7D99D09}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C254F775-5BF0-924A-A7EA-500B305634EB}">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
@@ -3063,9 +3080,7 @@
       <c r="E6" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
         <v>30</v>
       </c>
@@ -3096,9 +3111,7 @@
       <c r="E7" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
         <v>30</v>
       </c>
@@ -3202,14 +3215,14 @@
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>31</v>
@@ -3220,9 +3233,7 @@
       <c r="J11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K11" s="2" t="s">
-        <v>86</v>
-      </c>
+      <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:11" ht="30.75" customHeight="1">
       <c r="A12" s="2">
@@ -3231,14 +3242,14 @@
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>31</v>
@@ -3250,7 +3261,7 @@
         <v>32</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="30.75" customHeight="1">
@@ -3260,57 +3271,79 @@
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>80</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="F13" s="2"/>
       <c r="G13" s="2" t="s">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>31</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>31</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="30.75" customHeight="1">
-      <c r="A14" s="2"/>
+      <c r="A14" s="2">
+        <v>9</v>
+      </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-    </row>
-    <row r="16" spans="1:11" ht="25">
-      <c r="A16" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>107</v>
-      </c>
+      <c r="D14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="30.75" customHeight="1">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="17" spans="1:2" ht="25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <hyperlinks>
-    <hyperlink ref="B16" r:id="rId1" xr:uid="{5708BF71-1478-DE4F-80BB-6BD15B0B8997}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/【StockLead】テーブル定義書.xlsx
+++ b/【StockLead】テーブル定義書.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D0CB5DE-140B-6F4C-A62A-80568F8E33D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6685CD66-0020-DD43-B39A-EC386C83FE07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34920" yWindow="480" windowWidth="28800" windowHeight="16260" activeTab="5" xr2:uid="{84575686-D333-47A9-97C0-193D95775C32}"/>
+    <workbookView xWindow="48000" yWindow="-3100" windowWidth="19200" windowHeight="19860" activeTab="3" xr2:uid="{84575686-D333-47A9-97C0-193D95775C32}"/>
   </bookViews>
   <sheets>
     <sheet name="tenant" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="111">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -653,10 +653,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>at1st(FK)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>at2nd(FK)</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -684,6 +680,34 @@
     <t>価格</t>
     <rPh sb="0" eb="2">
       <t xml:space="preserve">カカク </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>item</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>保存場所</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ホゾン </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">バショ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>stock_place</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>保存場所によって変更</t>
+    <rPh sb="0" eb="4">
+      <t xml:space="preserve">ホゾンバショ </t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t xml:space="preserve">ヘンコウ </t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2199,8 +2223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB2B1CE3-0101-4742-BEB6-587EB58EC379}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
@@ -2255,7 +2279,7 @@
         <v>20</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="25.5" customHeight="1">
@@ -2364,16 +2388,16 @@
         <v>3</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F8" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>110</v>
+      </c>
       <c r="G8" s="2" t="s">
         <v>73</v>
       </c>
@@ -2422,7 +2446,7 @@
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>77</v>
@@ -2448,10 +2472,10 @@
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
@@ -2751,7 +2775,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>64</v>
@@ -2807,7 +2831,7 @@
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>95</v>
@@ -2833,10 +2857,10 @@
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
@@ -2970,7 +2994,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C254F775-5BF0-924A-A7EA-500B305634EB}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
@@ -3135,7 +3159,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>65</v>
@@ -3189,7 +3213,7 @@
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>94</v>
@@ -3215,10 +3239,10 @@
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
